--- a/data/outputs/OR_altmetric/16.xlsx
+++ b/data/outputs/OR_altmetric/16.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE99"/>
+  <dimension ref="A1:CF99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1031,6 +1036,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1280,6 +1288,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1529,6 +1540,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1774,6 +1788,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2027,6 +2044,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2270,6 +2290,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2513,6 +2536,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2758,6 +2784,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3007,6 +3036,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3260,6 +3292,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3509,6 +3544,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3758,6 +3796,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4007,6 +4048,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4250,6 +4294,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4493,6 +4540,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4738,6 +4788,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4979,6 +5032,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5216,6 +5272,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5455,6 +5514,9 @@
         <v>0</v>
       </c>
       <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5694,6 +5756,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5927,6 +5992,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6168,6 +6236,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6401,6 +6472,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6652,6 +6726,9 @@
         <v>0</v>
       </c>
       <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6887,6 +6964,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7136,6 +7216,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7385,6 +7468,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7642,6 +7728,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7887,6 +7976,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8142,6 +8234,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8391,6 +8486,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8636,6 +8734,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8889,6 +8990,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9134,6 +9238,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9391,6 +9498,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9644,6 +9754,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9901,6 +10014,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10150,6 +10266,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10399,6 +10518,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10656,6 +10778,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10913,6 +11038,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11164,6 +11292,9 @@
         <v>0</v>
       </c>
       <c r="CE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11407,6 +11538,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11660,6 +11794,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11909,6 +12046,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12166,6 +12306,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12415,6 +12558,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12664,6 +12810,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12921,6 +13070,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13166,6 +13318,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13415,6 +13570,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13664,6 +13822,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13921,6 +14082,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14178,6 +14342,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14427,6 +14594,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14672,6 +14842,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14921,6 +15094,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15168,6 +15344,9 @@
         <v>0</v>
       </c>
       <c r="CE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15411,6 +15590,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15674,6 +15856,9 @@
         <v>0</v>
       </c>
       <c r="CE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15905,6 +16090,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16166,6 +16354,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16427,6 +16618,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16680,6 +16874,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16941,6 +17138,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17200,6 +17400,9 @@
         <v>0</v>
       </c>
       <c r="CE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17443,6 +17646,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17692,6 +17898,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17941,6 +18150,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18190,6 +18402,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18433,6 +18648,9 @@
         <v>0</v>
       </c>
       <c r="CE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18676,6 +18894,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18917,6 +19138,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19158,6 +19382,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19407,6 +19634,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19652,6 +19882,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19901,6 +20134,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20148,6 +20384,9 @@
         <v>0</v>
       </c>
       <c r="CE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20391,6 +20630,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20640,6 +20882,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20895,6 +21140,9 @@
         <v>0</v>
       </c>
       <c r="CE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21134,6 +21382,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21391,6 +21642,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21648,6 +21902,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21909,6 +22166,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22162,6 +22422,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22419,6 +22682,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22676,6 +22942,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22929,6 +23198,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23182,6 +23454,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23425,6 +23700,9 @@
         <v>0</v>
       </c>
       <c r="CE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23664,6 +23942,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23909,6 +24190,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24154,6 +24438,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24407,6 +24694,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24652,6 +24942,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24893,6 +25186,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25142,6 +25438,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
